--- a/posts20_tagged_with_GPT4.xlsx
+++ b/posts20_tagged_with_GPT4.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuval\OneDrive\Documents\master\Second year\אפיון התנהגות אנושית מנתוני אינטרנט\reddit_data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDEEA1A5-0C9C-429F-A9CF-D5F8C27193F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="sport and art users posts" sheetId="1" r:id="rId1"/>
+    <sheet name="only art users posts" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="214">
   <si>
     <t>post id</t>
   </si>
@@ -34,13 +29,10 @@
     <t>Title</t>
   </si>
   <si>
+    <t>Description</t>
+  </si>
+  <si>
     <t>Post</t>
-  </si>
-  <si>
-    <t>Post.1</t>
-  </si>
-  <si>
-    <t>Unnamed: 6</t>
   </si>
   <si>
     <t>Yuval's grade1</t>
@@ -356,44 +348,388 @@
     <t>will he move on? Be stuck?</t>
   </si>
   <si>
-    <t>The post is a discussion about narrative technique, not productivity.</t>
-  </si>
-  <si>
-    <t>The author struggles with discipline and does not complete their writing tasks.</t>
-  </si>
-  <si>
-    <t>The post is asking for recommendations, not discussing productivity.</t>
-  </si>
-  <si>
-    <t>The author uses a time tracker to improve productivity and manage time effectively.</t>
-  </si>
-  <si>
-    <t>The author is criticizing without providing constructive feedback.</t>
-  </si>
-  <si>
-    <t>The author is seeking advice, not producing or completing tasks.</t>
-  </si>
-  <si>
-    <t>The author is not engaging in a productive activity or task.</t>
-  </si>
-  <si>
-    <t>The author spent 30 minutes searching for information that could have been provided.</t>
-  </si>
-  <si>
-    <t>The author is actively seeking advice to improve work efficiency.</t>
-  </si>
-  <si>
-    <t>Author is actively working on and improving a flute concerto.</t>
-  </si>
-  <si>
     <t>Rather productive</t>
+  </si>
+  <si>
+    <t>Rather not productive</t>
+  </si>
+  <si>
+    <t>Rather neutral</t>
+  </si>
+  <si>
+    <t>The author shows a deep understanding of narrative techniques.</t>
+  </si>
+  <si>
+    <t>The author expresses desire to write but lacks discipline and consistency.</t>
+  </si>
+  <si>
+    <t>The author is seeking advice, no mention of their own art productivity.</t>
+  </si>
+  <si>
+    <t>Author uses a time tracker to improve efficiency and keep accountable.</t>
+  </si>
+  <si>
+    <t>Post questions credibility of a platform, no creation or productive action mentioned.</t>
+  </si>
+  <si>
+    <t>The author is seeking advice, no evidence of productivity is given.</t>
+  </si>
+  <si>
+    <t>The author shows interest but doesn't mention creating art themselves.</t>
+  </si>
+  <si>
+    <t>The author is discussing art practices, not their own productivity.</t>
+  </si>
+  <si>
+    <t>The author is seeking advice to effectively manage their screenprinting tasks.</t>
+  </si>
+  <si>
+    <t>The author is actively working on a flute concerto.</t>
+  </si>
+  <si>
+    <t>Rather neutral to creation</t>
+  </si>
+  <si>
+    <t>Rather hard to create</t>
+  </si>
+  <si>
+    <t>Rather not hard to create</t>
+  </si>
+  <si>
+    <t>The author seeks advice, not expressing difficulty or ease in creating.</t>
+  </si>
+  <si>
+    <t>The author struggles with self-doubt and lack of discipline.</t>
+  </si>
+  <si>
+    <t>The author is seeking advice on tools, not expressing difficulty.</t>
+  </si>
+  <si>
+    <t>The author felt down due to perceived inefficiency.</t>
+  </si>
+  <si>
+    <t>The author is questioning a platform, not their creation process.</t>
+  </si>
+  <si>
+    <t>The author is seeking advice, not expressing difficulty in creation.</t>
+  </si>
+  <si>
+    <t>The author only mentions erasing pencil marks, no creation involved.</t>
+  </si>
+  <si>
+    <t>Author shows annoyance but no personal creation hardship mentioned.</t>
+  </si>
+  <si>
+    <t>Author is uncertain about the appropriate tools for their craft.</t>
+  </si>
+  <si>
+    <t>Difficulty with specific bars, extensive revisions, and orchestration issues.</t>
+  </si>
+  <si>
+    <t>Yuval's 1 reason</t>
+  </si>
+  <si>
+    <t>Val's 1 reason</t>
+  </si>
+  <si>
+    <t>Y's 2 reason</t>
+  </si>
+  <si>
+    <t>xqfq1u</t>
+  </si>
+  <si>
+    <t>w25a7q</t>
+  </si>
+  <si>
+    <t>18fsjvt</t>
+  </si>
+  <si>
+    <t>15i6aa2</t>
+  </si>
+  <si>
+    <t>tby0d0</t>
+  </si>
+  <si>
+    <t>1fr2ako</t>
+  </si>
+  <si>
+    <t>ogtgjt</t>
+  </si>
+  <si>
+    <t>1gk6uv8</t>
+  </si>
+  <si>
+    <t>1482zsf</t>
+  </si>
+  <si>
+    <t>1h2s3jo</t>
+  </si>
+  <si>
+    <t>FFRE1744</t>
+  </si>
+  <si>
+    <t>fairie88</t>
+  </si>
+  <si>
+    <t>SeaBluvs</t>
+  </si>
+  <si>
+    <t>beepboopphd</t>
+  </si>
+  <si>
+    <t>MagicalDonkey1234</t>
+  </si>
+  <si>
+    <t>lepetitmonde</t>
+  </si>
+  <si>
+    <t>duelpoke10</t>
+  </si>
+  <si>
+    <t>OldJiko</t>
+  </si>
+  <si>
+    <t>NERO0000000</t>
+  </si>
+  <si>
+    <t>oatmilk_fan</t>
+  </si>
+  <si>
+    <t>PhD</t>
+  </si>
+  <si>
+    <t>painting</t>
+  </si>
+  <si>
+    <t>What screams to you “amateur writer” when reading a book?</t>
+  </si>
+  <si>
+    <t>Senior editor told me, “nobody uses semi-colons anymore.”</t>
+  </si>
+  <si>
+    <t>Please take care on LinkedIn right now.</t>
+  </si>
+  <si>
+    <t>Oh you have a PhD in the exact field we're looking to hire for, and you're the leading expert in these algorithms? Sorry, you can't program minesweeper in 35 minutes, so you're not qualified.</t>
+  </si>
+  <si>
+    <t>Any famous composers that weren't good when they started?</t>
+  </si>
+  <si>
+    <t>I’m 60, should I stop?</t>
+  </si>
+  <si>
+    <t>I walked out of an interview with a client what should I do next?</t>
+  </si>
+  <si>
+    <t>My mom died.</t>
+  </si>
+  <si>
+    <t>What would you name this painting? And how does it make you feel?</t>
+  </si>
+  <si>
+    <t>I’m becoming a housewife. Anybody else?</t>
+  </si>
+  <si>
+    <t>As an amateur writer, I understand that certain things just come with experience, and some can’t be avoided until I understand the process and style a little more, but what are some more fixable mistakes that you can think of? Specifically stuff that kind of… takes you out of the book mentally. I’m trying not to write a story that people will be disinterested in because there are just small, nagging mistakes.</t>
+  </si>
+  <si>
+    <t>Is this true? Is there an anti-semi-colon brigade I have been blind to this whole time? Or is she just having her very own Stephen King moment?</t>
+  </si>
+  <si>
+    <t>I’m a full-time cybersecurity blogger, and I’ve been looking for some additional work through LinkedIn while starting to learn pitching. As part of this, I submitted applications for a few content writer roles. There seems to have been a slew of them added this month.
+Yesterday, I received NINE messages. Yup, nine.
+Every single one used the same word-for-word message. Asked for me to submit writing samples to an applicant alerts email address.
+Digging into the profiles, they were all very sus. Little or no connections. Listed a title that is held by somebody else at the specified company if you Google it. Fake companies entirely, with websites filled with Lorem Ipsum texts.
+I know the landscape is rough right now, but don’t rush into something without doing due diligence.</t>
+  </si>
+  <si>
+    <t>A bit ridiculous that I was passed over for a job because I couldn't write a minesweeper program in the allotted time. Apparently it doesn't matter that I have a PhD and a bunch of relevant experience if I'm not a LeetCode code monkey. Obviously I'm salty and I understand this is part of the game for finding software engineering jobs, but where's the logic in this? Big companies doing cutting-edge research that don't care about anything other than servants memorizing LeetCode techniques rather than good ideas?</t>
+  </si>
+  <si>
+    <t>Hey guys, basically the title.
+Are there any of the great and famous composers that weren't so great when they started? That their music was maybe mediocre, or even bad?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A new layer, each time a bit better than the previous one. On and on. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> My side hustle is being a freelance researcher, web content writer, and editor.  So, this week I landed a gig with an online business that then offered to sign a contract with me. Everything was going well, I had an interview with one of their recruiters, and only an interview with the company's head of HR(?) was left.  
+This is where problems began, I was told to contact the HR person through skype and schedule a time for the interview. I contacted this person and got no reply. Then randomly a day later I saw messages on my skype from the person i.e "Are you ready for the interview right now?". Like I wasn't told anything, I saw the messages a few hrs later and told that I was expecting the interview to be scheduled before it took place.  
+The person replied saying it was an error on their end and they would interview me Friday at 3 pm. I was like ok. Then, I was told that I need to be ready for the interview and be on time. So, today I am online at 3 pm I message them and then i am completely ghosted. Like wtf!   
+I waited for 30 min and just quit the app.  
+Like wtf should I do now, should I contact the people who offered me the contract or think of this as a no from the business. I don't mind them not hiring them but I would have liked them to be a bit clearer, right?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">She dealt with chronic illness, so we saw this coming. I took two weeks off to fly back home, be with my family and sort through her possessions. We're going on three weeks since she died. I have a strong support system, the program has been accommodating and my supervisor has made me aware of how bereavement leave works if I want to take it. I feel bad for wanting to get back to my routine, and at the same time, I feel bad for going back to work instead of taking time off to just sit and think about her and go to counselling or something. 
+If you've lost a parent this year, I'm sorry. I miss my mom. </t>
+  </si>
+  <si>
+    <t>I painted this (oil on canvas) painting a while ago, and turned out a little different than what I expected, like it kinda took it's own way voluntarily, I want your overall opinion on it, and I want a name for it because like I said this is not how I Imagined it, Thanks 🖤</t>
+  </si>
+  <si>
+    <t>Insanity. I did all this to get depressed and find out I want to stay home, lol. Is anyone else in a similar situation?</t>
+  </si>
+  <si>
+    <t>What screams to you “amateur writer” when reading a book? As an amateur writer, I understand that certain things just come with experience, and some can’t be avoided until I understand the process and style a little more, but what are some more fixable mistakes that you can think of? Specifically stuff that kind of… takes you out of the book mentally. I’m trying not to write a story that people will be disinterested in because there are just small, nagging mistakes.</t>
+  </si>
+  <si>
+    <t>Senior editor told me, “nobody uses semi-colons anymore.” Is this true? Is there an anti-semi-colon brigade I have been blind to this whole time? Or is she just having her very own Stephen King moment?</t>
+  </si>
+  <si>
+    <t>Please take care on LinkedIn right now. I’m a full-time cybersecurity blogger, and I’ve been looking for some additional work through LinkedIn while starting to learn pitching. As part of this, I submitted applications for a few content writer roles. There seems to have been a slew of them added this month.
+Yesterday, I received NINE messages. Yup, nine.
+Every single one used the same word-for-word message. Asked for me to submit writing samples to an applicant alerts email address.
+Digging into the profiles, they were all very sus. Little or no connections. Listed a title that is held by somebody else at the specified company if you Google it. Fake companies entirely, with websites filled with Lorem Ipsum texts.
+I know the landscape is rough right now, but don’t rush into something without doing due diligence.</t>
+  </si>
+  <si>
+    <t>Oh you have a PhD in the exact field we're looking to hire for, and you're the leading expert in these algorithms? Sorry, you can't program minesweeper in 35 minutes, so you're not qualified. A bit ridiculous that I was passed over for a job because I couldn't write a minesweeper program in the allotted time. Apparently it doesn't matter that I have a PhD and a bunch of relevant experience if I'm not a LeetCode code monkey. Obviously I'm salty and I understand this is part of the game for finding software engineering jobs, but where's the logic in this? Big companies doing cutting-edge research that don't care about anything other than servants memorizing LeetCode techniques rather than good ideas?</t>
+  </si>
+  <si>
+    <t>Any famous composers that weren't good when they started? Hey guys, basically the title.
+Are there any of the great and famous composers that weren't so great when they started? That their music was maybe mediocre, or even bad?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I’m 60, should I stop? A new layer, each time a bit better than the previous one. On and on. </t>
+  </si>
+  <si>
+    <t>I walked out of an interview with a client what should I do next?  My side hustle is being a freelance researcher, web content writer, and editor.  So, this week I landed a gig with an online business that then offered to sign a contract with me. Everything was going well, I had an interview with one of their recruiters, and only an interview with the company's head of HR(?) was left.  
+This is where problems began, I was told to contact the HR person through skype and schedule a time for the interview. I contacted this person and got no reply. Then randomly a day later I saw messages on my skype from the person i.e "Are you ready for the interview right now?". Like I wasn't told anything, I saw the messages a few hrs later and told that I was expecting the interview to be scheduled before it took place.  
+The person replied saying it was an error on their end and they would interview me Friday at 3 pm. I was like ok. Then, I was told that I need to be ready for the interview and be on time. So, today I am online at 3 pm I message them and then i am completely ghosted. Like wtf!   
+I waited for 30 min and just quit the app.  
+Like wtf should I do now, should I contact the people who offered me the contract or think of this as a no from the business. I don't mind them not hiring them but I would have liked them to be a bit clearer, right?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My mom died. She dealt with chronic illness, so we saw this coming. I took two weeks off to fly back home, be with my family and sort through her possessions. We're going on three weeks since she died. I have a strong support system, the program has been accommodating and my supervisor has made me aware of how bereavement leave works if I want to take it. I feel bad for wanting to get back to my routine, and at the same time, I feel bad for going back to work instead of taking time off to just sit and think about her and go to counselling or something. 
+If you've lost a parent this year, I'm sorry. I miss my mom. </t>
+  </si>
+  <si>
+    <t>What would you name this painting? And how does it make you feel? I painted this (oil on canvas) painting a while ago, and turned out a little different than what I expected, like it kinda took it's own way voluntarily, I want your overall opinion on it, and I want a name for it because like I said this is not how I Imagined it, Thanks 🖤</t>
+  </si>
+  <si>
+    <t>I’m becoming a housewife. Anybody else? Insanity. I did all this to get depressed and find out I want to stay home, lol. Is anyone else in a similar situation?</t>
+  </si>
+  <si>
+    <t>I’m trying not to write a story that people will be disinterested</t>
+  </si>
+  <si>
+    <t>she is giving advice for other peoples</t>
+  </si>
+  <si>
+    <t>I have a PhD and a bunch of relevant experience</t>
+  </si>
+  <si>
+    <t>better than the previous one</t>
+  </si>
+  <si>
+    <t>freelance researcher, web content writer, and editor</t>
+  </si>
+  <si>
+    <t>speaking about his mom death</t>
+  </si>
+  <si>
+    <t>painted</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> get depressed</t>
+  </si>
+  <si>
+    <t>is he producing at all?</t>
+  </si>
+  <si>
+    <t>she can decide to finish or to drop before</t>
+  </si>
+  <si>
+    <t>describes business</t>
+  </si>
+  <si>
+    <t>trying to be productive somehow but not just yet?</t>
+  </si>
+  <si>
+    <t>he describes productivity that does not satisfy him</t>
+  </si>
+  <si>
+    <t>he creates even if maybe little and improves</t>
+  </si>
+  <si>
+    <t>he tries to get hired</t>
+  </si>
+  <si>
+    <t>he tried to stop producing</t>
+  </si>
+  <si>
+    <t>he created but still in 2 minds</t>
+  </si>
+  <si>
+    <t>even if it drives her crazy?</t>
+  </si>
+  <si>
+    <t>The author is actively seeking advice to improve their writing skills.</t>
+  </si>
+  <si>
+    <t>Post questions a professional opinion, doesn't show personal productivity in art.</t>
+  </si>
+  <si>
+    <t>Actively applying for jobs, engaged in learning new skills.</t>
+  </si>
+  <si>
+    <t>Has a PhD and relevant experience, though failed a specific task.</t>
+  </si>
+  <si>
+    <t>The author is asking a question, not sharing experience.</t>
+  </si>
+  <si>
+    <t>The author constantly improves their work, indicating consistent productivity.</t>
+  </si>
+  <si>
+    <t>Author shows persistence and dedication in their freelance work.</t>
+  </si>
+  <si>
+    <t>Author is grieving and struggling with balancing work and personal emotions.</t>
+  </si>
+  <si>
+    <t>The author actively paints and seeks feedback for improvement.</t>
+  </si>
+  <si>
+    <t>The post doesn't mention any related experience or interest in art.</t>
+  </si>
+  <si>
+    <t>The author is an amateur struggling with common writing mistakes.</t>
+  </si>
+  <si>
+    <t>The author is questioning editorial advice, not discussing creation difficulty.</t>
+  </si>
+  <si>
+    <t>Author is experienced and methodical, no mention of pain.</t>
+  </si>
+  <si>
+    <t>Author expresses frustration and difficulty with job requirements.</t>
+  </si>
+  <si>
+    <t>The author doesn't mention their personal experience with creating art.</t>
+  </si>
+  <si>
+    <t>The author shows persistence despite age and the iterative process indicates struggle.</t>
+  </si>
+  <si>
+    <t>Author discusses difficulties in communication, not creation process.</t>
+  </si>
+  <si>
+    <t>Author is grieving, dealing with bereavement and divided feelings.</t>
+  </si>
+  <si>
+    <t>The author expresses surprise at the result, but no specific hardship.</t>
+  </si>
+  <si>
+    <t>The author expresses frustration but not specifically about creative process.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -456,21 +792,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -508,7 +836,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -542,7 +870,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -577,10 +904,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -753,23 +1079,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="9" max="9" width="18.21875" customWidth="1"/>
-    <col min="13" max="13" width="10" customWidth="1"/>
-    <col min="16" max="16" width="32" customWidth="1"/>
-    <col min="17" max="17" width="14.44140625" customWidth="1"/>
-    <col min="18" max="18" width="41.44140625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -824,455 +1141,1095 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" t="s">
         <v>18</v>
       </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L2" t="s">
+        <v>89</v>
+      </c>
+      <c r="M2" t="s">
+        <v>78</v>
+      </c>
+      <c r="N2" t="s">
+        <v>93</v>
+      </c>
+      <c r="O2" t="s">
+        <v>95</v>
+      </c>
+      <c r="P2" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>108</v>
+      </c>
+      <c r="R2" t="s">
+        <v>111</v>
+      </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="3" spans="1:18">
+      <c r="A3" t="s">
         <v>19</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>29</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I3" t="s">
+        <v>79</v>
+      </c>
+      <c r="J3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K3" t="s">
+        <v>90</v>
+      </c>
+      <c r="L3" t="s">
+        <v>90</v>
+      </c>
+      <c r="M3" t="s">
+        <v>79</v>
+      </c>
+      <c r="O3" t="s">
+        <v>96</v>
+      </c>
+      <c r="P3" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>109</v>
+      </c>
+      <c r="R3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
         <v>39</v>
       </c>
-      <c r="D2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H2" t="s">
-        <v>75</v>
-      </c>
-      <c r="I2" t="s">
-        <v>75</v>
-      </c>
-      <c r="J2" t="s">
-        <v>79</v>
-      </c>
-      <c r="K2" t="s">
-        <v>87</v>
-      </c>
-      <c r="L2" t="s">
-        <v>90</v>
-      </c>
-      <c r="M2" t="s">
-        <v>90</v>
-      </c>
-      <c r="N2" t="s">
-        <v>79</v>
-      </c>
-      <c r="O2" t="s">
-        <v>94</v>
-      </c>
-      <c r="P2" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
         <v>46</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E4" t="s">
         <v>56</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F4" t="s">
         <v>66</v>
       </c>
-      <c r="H3" t="s">
-        <v>76</v>
-      </c>
-      <c r="I3" t="s">
-        <v>76</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="G4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I4" t="s">
         <v>80</v>
       </c>
-      <c r="K3" t="s">
+      <c r="J4" t="s">
         <v>88</v>
-      </c>
-      <c r="L3" t="s">
-        <v>91</v>
-      </c>
-      <c r="M3" t="s">
-        <v>91</v>
-      </c>
-      <c r="N3" t="s">
-        <v>80</v>
-      </c>
-      <c r="P3" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F4" t="s">
-        <v>67</v>
-      </c>
-      <c r="H4" t="s">
-        <v>75</v>
-      </c>
-      <c r="I4" t="s">
-        <v>75</v>
-      </c>
-      <c r="J4" t="s">
-        <v>81</v>
       </c>
       <c r="K4" t="s">
         <v>89</v>
       </c>
       <c r="L4" t="s">
+        <v>89</v>
+      </c>
+      <c r="M4" t="s">
+        <v>80</v>
+      </c>
+      <c r="O4" t="s">
+        <v>97</v>
+      </c>
+      <c r="P4" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>108</v>
+      </c>
+      <c r="R4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I5" t="s">
+        <v>81</v>
+      </c>
+      <c r="K5" t="s">
+        <v>91</v>
+      </c>
+      <c r="L5" t="s">
+        <v>91</v>
+      </c>
+      <c r="M5" t="s">
+        <v>81</v>
+      </c>
+      <c r="O5" t="s">
+        <v>95</v>
+      </c>
+      <c r="P5" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>109</v>
+      </c>
+      <c r="R5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" t="s">
         <v>90</v>
       </c>
-      <c r="M4" t="s">
+      <c r="L6" t="s">
         <v>90</v>
       </c>
-      <c r="N4" t="s">
-        <v>81</v>
-      </c>
-      <c r="P4" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>98</v>
+      <c r="O6" t="s">
+        <v>96</v>
+      </c>
+      <c r="P6" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>108</v>
+      </c>
+      <c r="R6" t="s">
+        <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" t="s">
+    <row r="7" spans="1:18">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
         <v>41</v>
       </c>
-      <c r="D5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F5" t="s">
-        <v>68</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="D7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H7" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L7" t="s">
+        <v>89</v>
+      </c>
+      <c r="M7" t="s">
+        <v>82</v>
+      </c>
+      <c r="O7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>108</v>
+      </c>
+      <c r="R7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" t="s">
         <v>77</v>
       </c>
-      <c r="I5" t="s">
-        <v>77</v>
-      </c>
-      <c r="J5" t="s">
-        <v>82</v>
-      </c>
-      <c r="L5" t="s">
+      <c r="H8" t="s">
+        <v>75</v>
+      </c>
+      <c r="K8" t="s">
         <v>92</v>
       </c>
-      <c r="M5" t="s">
+      <c r="L8" t="s">
         <v>92</v>
       </c>
-      <c r="N5" t="s">
-        <v>82</v>
-      </c>
-      <c r="P5" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>99</v>
+      <c r="O8" t="s">
+        <v>97</v>
+      </c>
+      <c r="P8" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>110</v>
+      </c>
+      <c r="R8" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F6" t="s">
-        <v>69</v>
-      </c>
-      <c r="H6" t="s">
-        <v>76</v>
-      </c>
-      <c r="I6" t="s">
-        <v>76</v>
-      </c>
-      <c r="L6" t="s">
-        <v>91</v>
-      </c>
-      <c r="M6" t="s">
-        <v>91</v>
-      </c>
-      <c r="P6" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>100</v>
+    <row r="9" spans="1:18">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9" t="s">
+        <v>74</v>
+      </c>
+      <c r="I9" t="s">
+        <v>83</v>
+      </c>
+      <c r="K9" t="s">
+        <v>89</v>
+      </c>
+      <c r="L9" t="s">
+        <v>89</v>
+      </c>
+      <c r="M9" t="s">
+        <v>83</v>
+      </c>
+      <c r="O9" t="s">
+        <v>97</v>
+      </c>
+      <c r="P9" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>108</v>
+      </c>
+      <c r="R9" t="s">
+        <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" t="s">
+    <row r="10" spans="1:18">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
         <v>42</v>
       </c>
-      <c r="D7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H7" t="s">
-        <v>75</v>
-      </c>
-      <c r="I7" t="s">
-        <v>75</v>
-      </c>
-      <c r="J7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L7" t="s">
-        <v>90</v>
-      </c>
-      <c r="M7" t="s">
-        <v>90</v>
-      </c>
-      <c r="N7" t="s">
-        <v>83</v>
-      </c>
-      <c r="P7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" t="s">
-        <v>61</v>
-      </c>
-      <c r="F8" t="s">
-        <v>71</v>
-      </c>
-      <c r="H8" t="s">
-        <v>78</v>
-      </c>
-      <c r="I8" t="s">
-        <v>76</v>
-      </c>
-      <c r="L8" t="s">
-        <v>93</v>
-      </c>
-      <c r="M8" t="s">
-        <v>93</v>
-      </c>
-      <c r="P8" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
         <v>52</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E10" t="s">
         <v>62</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F10" t="s">
         <v>72</v>
       </c>
-      <c r="H9" t="s">
-        <v>75</v>
-      </c>
-      <c r="I9" t="s">
-        <v>75</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="G10" t="s">
+        <v>74</v>
+      </c>
+      <c r="H10" t="s">
+        <v>74</v>
+      </c>
+      <c r="I10" t="s">
         <v>84</v>
       </c>
-      <c r="L9" t="s">
-        <v>90</v>
-      </c>
-      <c r="M9" t="s">
-        <v>90</v>
-      </c>
-      <c r="N9" t="s">
+      <c r="K10" t="s">
+        <v>89</v>
+      </c>
+      <c r="L10" t="s">
+        <v>89</v>
+      </c>
+      <c r="M10" t="s">
         <v>84</v>
       </c>
-      <c r="P9" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" t="s">
-        <v>63</v>
-      </c>
-      <c r="F10" t="s">
-        <v>73</v>
-      </c>
-      <c r="H10" t="s">
-        <v>75</v>
-      </c>
-      <c r="I10" t="s">
-        <v>75</v>
-      </c>
-      <c r="J10" t="s">
-        <v>85</v>
-      </c>
-      <c r="L10" t="s">
-        <v>90</v>
-      </c>
-      <c r="M10" t="s">
-        <v>90</v>
-      </c>
-      <c r="N10" t="s">
-        <v>85</v>
+      <c r="O10" t="s">
+        <v>95</v>
       </c>
       <c r="P10" t="s">
         <v>106</v>
       </c>
       <c r="Q10" t="s">
-        <v>104</v>
+        <v>109</v>
+      </c>
+      <c r="R10" t="s">
+        <v>119</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F11" t="s">
-        <v>74</v>
+        <v>73</v>
+      </c>
+      <c r="G11" t="s">
+        <v>76</v>
       </c>
       <c r="H11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I11" t="s">
-        <v>77</v>
-      </c>
-      <c r="J11" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="K11" t="s">
+        <v>90</v>
       </c>
       <c r="L11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M11" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="N11" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="O11" t="s">
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="Q11" t="s">
-        <v>105</v>
+        <v>109</v>
+      </c>
+      <c r="R11" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" t="s">
+        <v>176</v>
+      </c>
+      <c r="J2" t="s">
+        <v>184</v>
+      </c>
+      <c r="K2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L2" t="s">
+        <v>89</v>
+      </c>
+      <c r="M2" t="s">
+        <v>176</v>
+      </c>
+      <c r="N2" t="s">
+        <v>95</v>
+      </c>
+      <c r="O2" t="s">
+        <v>194</v>
+      </c>
+      <c r="P2" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J3" t="s">
+        <v>185</v>
+      </c>
+      <c r="K3" t="s">
+        <v>89</v>
+      </c>
+      <c r="L3" t="s">
+        <v>89</v>
+      </c>
+      <c r="N3" t="s">
+        <v>97</v>
+      </c>
+      <c r="O3" t="s">
+        <v>195</v>
+      </c>
+      <c r="P3" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F4" t="s">
+        <v>168</v>
+      </c>
+      <c r="G4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I4" t="s">
+        <v>177</v>
+      </c>
+      <c r="J4" t="s">
+        <v>186</v>
+      </c>
+      <c r="K4" t="s">
+        <v>91</v>
+      </c>
+      <c r="L4" t="s">
+        <v>91</v>
+      </c>
+      <c r="M4" t="s">
+        <v>177</v>
+      </c>
+      <c r="N4" t="s">
+        <v>95</v>
+      </c>
+      <c r="O4" t="s">
+        <v>196</v>
+      </c>
+      <c r="P4" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E5" t="s">
+        <v>159</v>
+      </c>
+      <c r="F5" t="s">
+        <v>169</v>
+      </c>
+      <c r="G5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H5" t="s">
+        <v>75</v>
+      </c>
+      <c r="I5" t="s">
+        <v>178</v>
+      </c>
+      <c r="J5" t="s">
+        <v>187</v>
+      </c>
+      <c r="K5" t="s">
+        <v>91</v>
+      </c>
+      <c r="L5" t="s">
+        <v>90</v>
+      </c>
+      <c r="M5" t="s">
+        <v>178</v>
+      </c>
+      <c r="N5" t="s">
+        <v>95</v>
+      </c>
+      <c r="O5" t="s">
+        <v>197</v>
+      </c>
+      <c r="P5" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E6" t="s">
+        <v>160</v>
+      </c>
+      <c r="F6" t="s">
+        <v>170</v>
+      </c>
+      <c r="G6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" t="s">
+        <v>188</v>
+      </c>
+      <c r="K6" t="s">
+        <v>89</v>
+      </c>
+      <c r="L6" t="s">
+        <v>89</v>
+      </c>
+      <c r="N6" t="s">
+        <v>97</v>
+      </c>
+      <c r="O6" t="s">
+        <v>198</v>
+      </c>
+      <c r="P6" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H7" t="s">
+        <v>76</v>
+      </c>
+      <c r="I7" t="s">
+        <v>179</v>
+      </c>
+      <c r="J7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L7" t="s">
+        <v>91</v>
+      </c>
+      <c r="M7" t="s">
+        <v>179</v>
+      </c>
+      <c r="N7" t="s">
+        <v>95</v>
+      </c>
+      <c r="O7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E8" t="s">
+        <v>162</v>
+      </c>
+      <c r="F8" t="s">
+        <v>172</v>
+      </c>
+      <c r="G8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" t="s">
+        <v>76</v>
+      </c>
+      <c r="I8" t="s">
+        <v>180</v>
+      </c>
+      <c r="J8" t="s">
+        <v>190</v>
+      </c>
+      <c r="K8" t="s">
+        <v>91</v>
+      </c>
+      <c r="L8" t="s">
+        <v>91</v>
+      </c>
+      <c r="M8" t="s">
+        <v>180</v>
+      </c>
+      <c r="N8" t="s">
+        <v>95</v>
+      </c>
+      <c r="O8" t="s">
+        <v>200</v>
+      </c>
+      <c r="P8" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E9" t="s">
+        <v>163</v>
+      </c>
+      <c r="F9" t="s">
+        <v>173</v>
+      </c>
+      <c r="G9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H9" t="s">
+        <v>76</v>
+      </c>
+      <c r="I9" t="s">
+        <v>181</v>
+      </c>
+      <c r="J9" t="s">
+        <v>191</v>
+      </c>
+      <c r="K9" t="s">
+        <v>91</v>
+      </c>
+      <c r="L9" t="s">
+        <v>91</v>
+      </c>
+      <c r="M9" t="s">
+        <v>181</v>
+      </c>
+      <c r="N9" t="s">
+        <v>96</v>
+      </c>
+      <c r="O9" t="s">
+        <v>201</v>
+      </c>
+      <c r="P9" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D10" t="s">
+        <v>154</v>
+      </c>
+      <c r="E10" t="s">
+        <v>164</v>
+      </c>
+      <c r="F10" t="s">
+        <v>174</v>
+      </c>
+      <c r="G10" t="s">
+        <v>74</v>
+      </c>
+      <c r="H10" t="s">
+        <v>74</v>
+      </c>
+      <c r="I10" t="s">
+        <v>182</v>
+      </c>
+      <c r="J10" t="s">
+        <v>192</v>
+      </c>
+      <c r="K10" t="s">
+        <v>91</v>
+      </c>
+      <c r="L10" t="s">
+        <v>91</v>
+      </c>
+      <c r="M10" t="s">
+        <v>182</v>
+      </c>
+      <c r="N10" t="s">
+        <v>95</v>
+      </c>
+      <c r="O10" t="s">
+        <v>202</v>
+      </c>
+      <c r="P10" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" t="s">
+        <v>133</v>
+      </c>
+      <c r="B11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C11" t="s">
+        <v>144</v>
+      </c>
+      <c r="D11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E11" t="s">
+        <v>165</v>
+      </c>
+      <c r="F11" t="s">
+        <v>175</v>
+      </c>
+      <c r="G11" t="s">
+        <v>75</v>
+      </c>
+      <c r="H11" t="s">
+        <v>75</v>
+      </c>
+      <c r="I11" t="s">
+        <v>183</v>
+      </c>
+      <c r="J11" t="s">
+        <v>193</v>
+      </c>
+      <c r="K11" t="s">
+        <v>90</v>
+      </c>
+      <c r="L11" t="s">
+        <v>90</v>
+      </c>
+      <c r="M11" t="s">
+        <v>183</v>
+      </c>
+      <c r="N11" t="s">
+        <v>96</v>
+      </c>
+      <c r="O11" t="s">
+        <v>203</v>
+      </c>
+      <c r="P11" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>213</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/posts20_tagged_with_GPT4.xlsx
+++ b/posts20_tagged_with_GPT4.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuval\OneDrive\Documents\master\Second year\אפיון התנהגות אנושית מנתוני אינטרנט\reddit_data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F421F83C-18FD-457D-87AB-D1CD1C16C68D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sport and art users posts" sheetId="1" r:id="rId1"/>
     <sheet name="only art users posts" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="212">
   <si>
     <t>post id</t>
   </si>
@@ -294,9 +300,6 @@
     <t>rather productive</t>
   </si>
   <si>
-    <t>subject has rather nothing to do with productivity</t>
-  </si>
-  <si>
     <t>Just asking opinion on something</t>
   </si>
   <si>
@@ -337,9 +340,6 @@
   </si>
   <si>
     <t>rather not hard to create</t>
-  </si>
-  <si>
-    <t>subject has rather nothing to do with creativity</t>
   </si>
   <si>
     <t>maybe hard?</t>
@@ -728,8 +728,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -792,13 +792,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -836,7 +844,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -870,6 +878,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -904,9 +913,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1079,14 +1089,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="8" max="8" width="37.21875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1142,7 +1157,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -1168,37 +1183,37 @@
         <v>74</v>
       </c>
       <c r="I2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N2" t="s">
+        <v>91</v>
+      </c>
+      <c r="O2" t="s">
         <v>93</v>
       </c>
-      <c r="O2" t="s">
-        <v>95</v>
-      </c>
       <c r="P2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="Q2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="R2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -1224,34 +1239,34 @@
         <v>75</v>
       </c>
       <c r="I3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="P3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Q3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="R3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -1277,34 +1292,34 @@
         <v>74</v>
       </c>
       <c r="I4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J4" t="s">
+        <v>87</v>
+      </c>
+      <c r="K4" t="s">
         <v>88</v>
       </c>
-      <c r="K4" t="s">
-        <v>89</v>
-      </c>
       <c r="L4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Q4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="R4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -1330,31 +1345,31 @@
         <v>76</v>
       </c>
       <c r="I5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Q5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="R5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -1380,25 +1395,25 @@
         <v>75</v>
       </c>
       <c r="K6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="Q6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="R6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -1424,31 +1439,31 @@
         <v>74</v>
       </c>
       <c r="I7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="Q7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="R7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -1468,31 +1483,31 @@
         <v>70</v>
       </c>
       <c r="G8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H8" t="s">
         <v>75</v>
       </c>
       <c r="K8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="L8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="O8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="Q8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="R8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -1518,31 +1533,31 @@
         <v>74</v>
       </c>
       <c r="I9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="Q9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="R9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -1568,31 +1583,31 @@
         <v>74</v>
       </c>
       <c r="I10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="Q10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="R10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -1618,31 +1633,31 @@
         <v>76</v>
       </c>
       <c r="I11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="P11" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q11" t="s">
         <v>107</v>
       </c>
-      <c r="Q11" t="s">
-        <v>109</v>
-      </c>
       <c r="R11" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1651,14 +1666,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1684,10 +1699,10 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>10</v>
@@ -1696,7 +1711,7 @@
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>14</v>
@@ -1711,24 +1726,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C2" t="s">
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G2" t="s">
         <v>74</v>
@@ -1737,51 +1752,51 @@
         <v>74</v>
       </c>
       <c r="I2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="J2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="N2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="Q2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C3" t="s">
         <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G3" t="s">
         <v>74</v>
@@ -1790,45 +1805,45 @@
         <v>74</v>
       </c>
       <c r="J3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="P3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="Q3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C4" t="s">
         <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G4" t="s">
         <v>76</v>
@@ -1837,51 +1852,51 @@
         <v>76</v>
       </c>
       <c r="I4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="N4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="P4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="Q4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G5" t="s">
         <v>76</v>
@@ -1890,51 +1905,51 @@
         <v>75</v>
       </c>
       <c r="I5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="N5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="Q5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C6" t="s">
         <v>43</v>
       </c>
       <c r="D6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G6" t="s">
         <v>74</v>
@@ -1943,45 +1958,45 @@
         <v>74</v>
       </c>
       <c r="J6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="P6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="Q6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C7" t="s">
         <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G7" t="s">
         <v>76</v>
@@ -1990,51 +2005,51 @@
         <v>76</v>
       </c>
       <c r="I7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="J7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="N7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="P7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="Q7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C8" t="s">
         <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G8" t="s">
         <v>76</v>
@@ -2043,51 +2058,51 @@
         <v>76</v>
       </c>
       <c r="I8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="N8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="P8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="Q8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G9" t="s">
         <v>76</v>
@@ -2096,51 +2111,51 @@
         <v>76</v>
       </c>
       <c r="I9" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="J9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M9" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="N9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O9" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="P9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="Q9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F10" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G10" t="s">
         <v>74</v>
@@ -2149,51 +2164,51 @@
         <v>74</v>
       </c>
       <c r="I10" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M10" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="N10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O10" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="Q10" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E11" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F11" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G11" t="s">
         <v>75</v>
@@ -2202,31 +2217,31 @@
         <v>75</v>
       </c>
       <c r="I11" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J11" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M11" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="N11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O11" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="P11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="Q11" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
